--- a/data/hotels_by_city/Denver/Denver_shard_260.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_260.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="228">
   <si>
     <t>STR#</t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g33591-d252925-Reviews-Super_8_Parker_SE_Denver_Area-Parker_Colorado.html</t>
   </si>
   <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Denver-Hotels-Super-8-ParkerSE-Denver-Area.h892734.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +145,561 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/05/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d252925-r592017000-Super_8_by_Wyndham_Parker_SE_Denver_Area-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>33591</t>
+  </si>
+  <si>
+    <t>252925</t>
+  </si>
+  <si>
+    <t>592017000</t>
+  </si>
+  <si>
+    <t>06/30/2018</t>
+  </si>
+  <si>
+    <t>Not as advertised</t>
+  </si>
+  <si>
+    <t>It was overall okay.  On line it advertised breakfast.  However, after we checked in we found out that there was no breakfast offered.  On this particular trip, time was of the essence.  We lost quite a bit due to trying to find a place to eat and additional expense</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d252925-r591999627-Super_8_by_Wyndham_Parker_SE_Denver_Area-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>591999627</t>
+  </si>
+  <si>
+    <t>Not Recommended</t>
+  </si>
+  <si>
+    <t>We had made reservations a month ahead.  When we arrived, we find they have us in a smoking room.  The manager insisted that we had to pay $40 extra to get a non-smoking room  which totaled around $200 for one night.  To top it off, the lobby was was under construction and was quite creepy looking.  The manager was rude and had quite a " I could care less"  attitude.  None of us wanted to even see what the rooms looked like.  We finally got a reservation at the Mariott down the freeway for $169.  I have stayed at Super 8's before and have never had such problems. Until the get their act together with staff and facilities, I would not recommend staying  there.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>We had made reservations a month ahead.  When we arrived, we find they have us in a smoking room.  The manager insisted that we had to pay $40 extra to get a non-smoking room  which totaled around $200 for one night.  To top it off, the lobby was was under construction and was quite creepy looking.  The manager was rude and had quite a " I could care less"  attitude.  None of us wanted to even see what the rooms looked like.  We finally got a reservation at the Mariott down the freeway for $169.  I have stayed at Super 8's before and have never had such problems. Until the get their act together with staff and facilities, I would not recommend staying  there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d252925-r583044875-Super_8_by_Wyndham_Parker_SE_Denver_Area-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>583044875</t>
+  </si>
+  <si>
+    <t>05/27/2018</t>
+  </si>
+  <si>
+    <t>Super 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's a Super 8, let's not kid ourselves. The rooms/carpet/bedding are a little dated but for the price the quality is great and the staff is fantastic. Much easier to work with than at a lot of the more expensive hotels. </t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d252925-r566302405-Super_8_by_Wyndham_Parker_SE_Denver_Area-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>566302405</t>
+  </si>
+  <si>
+    <t>03/13/2018</t>
+  </si>
+  <si>
+    <t>No thank you</t>
+  </si>
+  <si>
+    <t>It was a terrible experience, the beds were uncomfortable, only 2 very small pillows, the staff was rude, especially the breakfast lady in the morning. I asked if she was going to put more eggs and bacon out...her answer flat out “No.” and we still had 30 minutes until the end of breakfast. There were no more eggs and bacon left...flat out no. Worst customer service ever and I stay at A LOT of hotels</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d252925-r563182173-Super_8_by_Wyndham_Parker_SE_Denver_Area-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>563182173</t>
+  </si>
+  <si>
+    <t>02/27/2018</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d252925-r560747477-Super_8_by_Wyndham_Parker_SE_Denver_Area-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>560747477</t>
+  </si>
+  <si>
+    <t>02/15/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d252925-r549210290-Super_8_by_Wyndham_Parker_SE_Denver_Area-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>549210290</t>
+  </si>
+  <si>
+    <t>12/25/2017</t>
+  </si>
+  <si>
+    <t>Glad this Super 8 was in Parker</t>
+  </si>
+  <si>
+    <t>no I do not wish to share. but since you forced me - there was no apparent way to turn the shower on (instead of tub)</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d252925-r544119635-Super_8_by_Wyndham_Parker_SE_Denver_Area-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>544119635</t>
+  </si>
+  <si>
+    <t>11/29/2017</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>Mindy S, General Manager at Super 8 by Wyndham Parker/SE Denver Area, responded to this reviewResponded December 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 2, 2017</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d252925-r542063258-Super_8_by_Wyndham_Parker_SE_Denver_Area-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>542063258</t>
+  </si>
+  <si>
+    <t>11/19/2017</t>
+  </si>
+  <si>
+    <t>usually stay here</t>
+  </si>
+  <si>
+    <t>I usually stay here when I travel to the Denver area. The rooms are always clean. And they have smoking rooms which is great for me.MoreShow less</t>
+  </si>
+  <si>
+    <t>Mindy S, General Manager at Super 8 by Wyndham Parker/SE Denver Area, responded to this reviewResponded November 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 24, 2017</t>
+  </si>
+  <si>
+    <t>I usually stay here when I travel to the Denver area. The rooms are always clean. And they have smoking rooms which is great for me.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d252925-r534373803-Super_8_by_Wyndham_Parker_SE_Denver_Area-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>534373803</t>
+  </si>
+  <si>
+    <t>10/19/2017</t>
+  </si>
+  <si>
+    <t>Great place....So quite!!</t>
+  </si>
+  <si>
+    <t>The staff was very helpful and kind.  We stayed here while a family member was in the hospital and the staff asked us everyday with an update.  I have a hard time remembering people but yet this hotel keeps details in mind.  The room was large and super clean.  I would recommend this hotel to anyone who comes into town.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>Mindy S, General Manager at Super 8 by Wyndham Parker/SE Denver Area, responded to this reviewResponded October 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 23, 2017</t>
+  </si>
+  <si>
+    <t>The staff was very helpful and kind.  We stayed here while a family member was in the hospital and the staff asked us everyday with an update.  I have a hard time remembering people but yet this hotel keeps details in mind.  The room was large and super clean.  I would recommend this hotel to anyone who comes into town.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d252925-r534359761-Super_8_by_Wyndham_Parker_SE_Denver_Area-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>534359761</t>
+  </si>
+  <si>
+    <t>Clean, comfortable, Quite</t>
+  </si>
+  <si>
+    <t>I've been here a couple of times and enjoyed my stay each time.It's important for me to have a clean, quite place when I'm away from home and I thought this place did just the thing.Thanks Super 8 Parker!MoreShow less</t>
+  </si>
+  <si>
+    <t>I've been here a couple of times and enjoyed my stay each time.It's important for me to have a clean, quite place when I'm away from home and I thought this place did just the thing.Thanks Super 8 Parker!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d252925-r529930789-Super_8_by_Wyndham_Parker_SE_Denver_Area-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>529930789</t>
+  </si>
+  <si>
+    <t>10/04/2017</t>
+  </si>
+  <si>
+    <t>Our stay was very comfortable. The beds were excellent...</t>
+  </si>
+  <si>
+    <t>Our stay was very comfortable. The beds were excellent.   We were in process of moving our daughter and had vacated the home. This was our  "home"  for two nights in that time frame. MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Mindy S, General Manager at Super 8 by Wyndham Parker/SE Denver Area, responded to this reviewResponded October 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 5, 2017</t>
+  </si>
+  <si>
+    <t>Our stay was very comfortable. The beds were excellent.   We were in process of moving our daughter and had vacated the home. This was our  "home"  for two nights in that time frame. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d252925-r526792641-Super_8_by_Wyndham_Parker_SE_Denver_Area-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>526792641</t>
+  </si>
+  <si>
+    <t>09/23/2017</t>
+  </si>
+  <si>
+    <t>Adequate</t>
+  </si>
+  <si>
+    <t>Two night stay.  Hand handicapped room.  Tiles in bath very uneven and hazardous.  Shelf in bath comes apart easily and dumps shelf items in toilet or on floor.  Breakfast great.  Coffee could be more flavorful.  Clean.  Comfortable.  Only two pillows supplied.  Had two ask for two more.  Would recommend for a no bells-and-whistles stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d252925-r526172286-Super_8_by_Wyndham_Parker_SE_Denver_Area-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>526172286</t>
+  </si>
+  <si>
+    <t>09/20/2017</t>
+  </si>
+  <si>
+    <t>Parker in Sept</t>
+  </si>
+  <si>
+    <t>Hotel is clean and basic.  Nothing fancy.  The staff is very helpful.  The location works very for my needs and will stay again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d252925-r523097071-Super_8_by_Wyndham_Parker_SE_Denver_Area-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>523097071</t>
+  </si>
+  <si>
+    <t>09/10/2017</t>
+  </si>
+  <si>
+    <t>Satisfaction</t>
+  </si>
+  <si>
+    <t>When you stay at a hotel or motel, you want complete satisfaction.  Absolutely, everything was.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d252925-r506012970-Super_8_by_Wyndham_Parker_SE_Denver_Area-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>506012970</t>
+  </si>
+  <si>
+    <t>07/26/2017</t>
+  </si>
+  <si>
+    <t>Pleasant Stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Could not send out emails via the wifi in the room.  I don't know if they had a block on sending out email via my gmail account.  That was frustrating.  Other than that, the rest of my stay was very pleasant.  </t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d252925-r503698841-Super_8_by_Wyndham_Parker_SE_Denver_Area-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>503698841</t>
+  </si>
+  <si>
+    <t>07/19/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d252925-r499673159-Super_8_by_Wyndham_Parker_SE_Denver_Area-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>499673159</t>
+  </si>
+  <si>
+    <t>07/08/2017</t>
+  </si>
+  <si>
+    <t>Lovely management and staff</t>
+  </si>
+  <si>
+    <t>The hotel is an average Super 8. But the staff outshine those in all other such hotels! Nice people. Very friendly and accommodating. Will stay there again on my next trip to Denver.</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d252925-r496615721-Super_8_by_Wyndham_Parker_SE_Denver_Area-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>496615721</t>
+  </si>
+  <si>
+    <t>06/27/2017</t>
+  </si>
+  <si>
+    <t>nice Folks</t>
+  </si>
+  <si>
+    <t>I was able to get my room quickly, the staff were friendly and helpful. The Non-Smoking room was Clean and welcoming. I had no trouble asking for info about dining or other options. Overall a nice place - Friendly Folks and a great Value!!  MoreShow less</t>
+  </si>
+  <si>
+    <t>Mindy S, Manager at Super 8 by Wyndham Parker/SE Denver Area, responded to this reviewResponded July 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 3, 2017</t>
+  </si>
+  <si>
+    <t>I was able to get my room quickly, the staff were friendly and helpful. The Non-Smoking room was Clean and welcoming. I had no trouble asking for info about dining or other options. Overall a nice place - Friendly Folks and a great Value!!  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d252925-r495407465-Super_8_by_Wyndham_Parker_SE_Denver_Area-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>495407465</t>
+  </si>
+  <si>
+    <t>06/23/2017</t>
+  </si>
+  <si>
+    <t>Good service and great beds, but too expensive</t>
+  </si>
+  <si>
+    <t>This motel is conveniently located if you are visiting Parker.  Since it is one of very few motels in Parker, this allows for them to charge quite a lot for an average motel.  Hotel staff was friendly and accommodating and beds were very comfortable.  Breakfast was an average continental style, not what was expected for the price.  Decor quite outdated for the price.MoreShow less</t>
+  </si>
+  <si>
+    <t>This motel is conveniently located if you are visiting Parker.  Since it is one of very few motels in Parker, this allows for them to charge quite a lot for an average motel.  Hotel staff was friendly and accommodating and beds were very comfortable.  Breakfast was an average continental style, not what was expected for the price.  Decor quite outdated for the price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d252925-r495400339-Super_8_by_Wyndham_Parker_SE_Denver_Area-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>495400339</t>
+  </si>
+  <si>
+    <t>The staff was friendly the room wasn't bad just basic room...</t>
+  </si>
+  <si>
+    <t>The staff was friendly the room wasn't bad just basic room clean carpets didn't stink like our last room decent place to stay and very competitive price.MoreShow less</t>
+  </si>
+  <si>
+    <t>The staff was friendly the room wasn't bad just basic room clean carpets didn't stink like our last room decent place to stay and very competitive price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d252925-r491613051-Super_8_by_Wyndham_Parker_SE_Denver_Area-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>491613051</t>
+  </si>
+  <si>
+    <t>06/08/2017</t>
+  </si>
+  <si>
+    <t>Parker visit</t>
+  </si>
+  <si>
+    <t>Very nice hotel, super helpful staff, and less than one mile to my daughter's home.  Clean and reasonably priced.MoreShow less</t>
+  </si>
+  <si>
+    <t>Very nice hotel, super helpful staff, and less than one mile to my daughter's home.  Clean and reasonably priced.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d252925-r491606162-Super_8_by_Wyndham_Parker_SE_Denver_Area-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>491606162</t>
+  </si>
+  <si>
+    <t>Disappointed</t>
+  </si>
+  <si>
+    <t>The room was good size. I was very disappointed with the dingy look of the walls. The furniture was very dirty with big spots and worn look. The bathroom door didn't work well. The chained lock on the facing board wasn't working well either, it was very loose. MoreShow less</t>
+  </si>
+  <si>
+    <t>The room was good size. I was very disappointed with the dingy look of the walls. The furniture was very dirty with big spots and worn look. The bathroom door didn't work well. The chained lock on the facing board wasn't working well either, it was very loose. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d252925-r489425149-Super_8_by_Wyndham_Parker_SE_Denver_Area-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>489425149</t>
+  </si>
+  <si>
+    <t>05/31/2017</t>
+  </si>
+  <si>
+    <t>one of parker's best kept secrets....it is lovely !</t>
+  </si>
+  <si>
+    <t>qualities:quiet......very clean....excellent staff ensures attention to whatever a guest might need.....ready access to parker road so getting anywhere is easy.  my room included a small couch and little "kitchen" area....good for longer stays.... most important...the new owners bring a dignity and calm to the entire establishment.i thank them for their attention to my needs....MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Mindy S, General Manager at Super 8 by Wyndham Parker/SE Denver Area, responded to this reviewResponded June 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 1, 2017</t>
+  </si>
+  <si>
+    <t>qualities:quiet......very clean....excellent staff ensures attention to whatever a guest might need.....ready access to parker road so getting anywhere is easy.  my room included a small couch and little "kitchen" area....good for longer stays.... most important...the new owners bring a dignity and calm to the entire establishment.i thank them for their attention to my needs....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d252925-r487739284-Super_8_by_Wyndham_Parker_SE_Denver_Area-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>487739284</t>
+  </si>
+  <si>
+    <t>05/25/2017</t>
+  </si>
+  <si>
+    <t>graduation Chris</t>
+  </si>
+  <si>
+    <t>The staff was very efficient, friendly and helpful..  The location was great for us.  Easy freeway access and location to family members, restaurants, shopping.  The internet (meaning wifi) was not very good, but we were told that they were working on it and aware of the problem.  The computer in the lobby connection was great so that worked for me.MoreShow less</t>
+  </si>
+  <si>
+    <t>The staff was very efficient, friendly and helpful..  The location was great for us.  Easy freeway access and location to family members, restaurants, shopping.  The internet (meaning wifi) was not very good, but we were told that they were working on it and aware of the problem.  The computer in the lobby connection was great so that worked for me.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d252925-r486516665-Super_8_by_Wyndham_Parker_SE_Denver_Area-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>486516665</t>
+  </si>
+  <si>
+    <t>05/22/2017</t>
+  </si>
+  <si>
+    <t>Chared a damage Deposit and never proivded with a picture, Call back from Manager as requested Several times</t>
+  </si>
+  <si>
+    <t>I was changed $150.00 for Damages,  I Requested a picture of the Damage and a Call from the Manager and never received it.MoreShow less</t>
+  </si>
+  <si>
+    <t>I was changed $150.00 for Damages,  I Requested a picture of the Damage and a Call from the Manager and never received it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d252925-r483146430-Super_8_by_Wyndham_Parker_SE_Denver_Area-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>483146430</t>
+  </si>
+  <si>
+    <t>05/10/2017</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>Everything was good except we were next door to a group of people who did not go to bed until around 4 in the morning, they were not really loud but apparently the walls are thin. We had to get up at 5, so i guess it was hard for them to slerp, lolMoreShow less</t>
+  </si>
+  <si>
+    <t>Everything was good except we were next door to a group of people who did not go to bed until around 4 in the morning, they were not really loud but apparently the walls are thin. We had to get up at 5, so i guess it was hard for them to slerp, lolMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d252925-r476179056-Super_8_by_Wyndham_Parker_SE_Denver_Area-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>476179056</t>
+  </si>
+  <si>
+    <t>04/16/2017</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>damonh754, Manager at Super 8 by Wyndham Parker/SE Denver Area, responded to this reviewResponded April 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 17, 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d252925-r475290692-Super_8_by_Wyndham_Parker_SE_Denver_Area-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>475290692</t>
+  </si>
+  <si>
+    <t>04/13/2017</t>
+  </si>
+  <si>
+    <t>Great place for the money.</t>
+  </si>
+  <si>
+    <t>This property is undergoing renovations.  Other than a little extra dust in the hallways you can't tell.  The room, linens, and bathroom was spotless.  The beds were comfortable and felt newer.  The staff was very friendly and was able to help me out with my one concern.  The breakfast bar is small although adequate for the price of the room.  I would stay at the property again without hesitation.MoreShow less</t>
+  </si>
+  <si>
+    <t>This property is undergoing renovations.  Other than a little extra dust in the hallways you can't tell.  The room, linens, and bathroom was spotless.  The beds were comfortable and felt newer.  The staff was very friendly and was able to help me out with my one concern.  The breakfast bar is small although adequate for the price of the room.  I would stay at the property again without hesitation.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d252925-r473247004-Super_8_by_Wyndham_Parker_SE_Denver_Area-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>473247004</t>
+  </si>
+  <si>
+    <t>04/06/2017</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1093,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1125,2101 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>42272</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3</v>
+      </c>
+      <c r="R2" t="n">
+        <v>3</v>
+      </c>
+      <c r="S2" t="n">
+        <v>3</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>42272</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" t="s">
+        <v>57</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>42272</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3</v>
+      </c>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>4</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>42272</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" t="s">
+        <v>65</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="n">
+        <v>3</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>42272</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" t="s"/>
+      <c r="L6" t="s"/>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>75</v>
+      </c>
+      <c r="O6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="n">
+        <v>4</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>42272</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K7" t="s"/>
+      <c r="L7" t="s"/>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>75</v>
+      </c>
+      <c r="O7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="n">
+        <v>4</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>42272</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J8" t="s">
+        <v>82</v>
+      </c>
+      <c r="K8" t="s">
+        <v>83</v>
+      </c>
+      <c r="L8" t="s">
+        <v>84</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>85</v>
+      </c>
+      <c r="O8" t="s">
+        <v>86</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>42272</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>88</v>
+      </c>
+      <c r="J9" t="s">
+        <v>89</v>
+      </c>
+      <c r="K9" t="s"/>
+      <c r="L9" t="s">
+        <v>90</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>91</v>
+      </c>
+      <c r="O9" t="s">
+        <v>52</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>4</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>92</v>
+      </c>
+      <c r="X9" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>42272</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>95</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>96</v>
+      </c>
+      <c r="J10" t="s">
+        <v>97</v>
+      </c>
+      <c r="K10" t="s">
+        <v>98</v>
+      </c>
+      <c r="L10" t="s">
+        <v>99</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>91</v>
+      </c>
+      <c r="O10" t="s">
+        <v>86</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>100</v>
+      </c>
+      <c r="X10" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>42272</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>104</v>
+      </c>
+      <c r="J11" t="s">
+        <v>105</v>
+      </c>
+      <c r="K11" t="s">
+        <v>106</v>
+      </c>
+      <c r="L11" t="s">
+        <v>107</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>108</v>
+      </c>
+      <c r="O11" t="s">
+        <v>52</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>109</v>
+      </c>
+      <c r="X11" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>42272</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>113</v>
+      </c>
+      <c r="J12" t="s">
+        <v>105</v>
+      </c>
+      <c r="K12" t="s">
+        <v>114</v>
+      </c>
+      <c r="L12" t="s">
+        <v>115</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>108</v>
+      </c>
+      <c r="O12" t="s">
+        <v>52</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>109</v>
+      </c>
+      <c r="X12" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>42272</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>117</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>118</v>
+      </c>
+      <c r="J13" t="s">
+        <v>119</v>
+      </c>
+      <c r="K13" t="s">
+        <v>120</v>
+      </c>
+      <c r="L13" t="s">
+        <v>121</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>122</v>
+      </c>
+      <c r="O13" t="s">
+        <v>52</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" t="n">
+        <v>4</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>123</v>
+      </c>
+      <c r="X13" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>42272</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>126</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>127</v>
+      </c>
+      <c r="J14" t="s">
+        <v>128</v>
+      </c>
+      <c r="K14" t="s">
+        <v>129</v>
+      </c>
+      <c r="L14" t="s">
+        <v>130</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>122</v>
+      </c>
+      <c r="O14" t="s">
+        <v>79</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>42272</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>131</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>132</v>
+      </c>
+      <c r="J15" t="s">
+        <v>133</v>
+      </c>
+      <c r="K15" t="s">
+        <v>134</v>
+      </c>
+      <c r="L15" t="s">
+        <v>135</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>122</v>
+      </c>
+      <c r="O15" t="s">
+        <v>52</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>4</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>42272</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>136</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>137</v>
+      </c>
+      <c r="J16" t="s">
+        <v>138</v>
+      </c>
+      <c r="K16" t="s">
+        <v>139</v>
+      </c>
+      <c r="L16" t="s">
+        <v>140</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>122</v>
+      </c>
+      <c r="O16" t="s">
+        <v>65</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>42272</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>141</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>142</v>
+      </c>
+      <c r="J17" t="s">
+        <v>143</v>
+      </c>
+      <c r="K17" t="s">
+        <v>144</v>
+      </c>
+      <c r="L17" t="s">
+        <v>145</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>146</v>
+      </c>
+      <c r="O17" t="s">
+        <v>86</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>42272</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>147</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>148</v>
+      </c>
+      <c r="J18" t="s">
+        <v>149</v>
+      </c>
+      <c r="K18" t="s"/>
+      <c r="L18" t="s"/>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>146</v>
+      </c>
+      <c r="O18" t="s">
+        <v>86</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>4</v>
+      </c>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" t="n">
+        <v>4</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>42272</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>150</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>151</v>
+      </c>
+      <c r="J19" t="s">
+        <v>152</v>
+      </c>
+      <c r="K19" t="s">
+        <v>153</v>
+      </c>
+      <c r="L19" t="s">
+        <v>154</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>155</v>
+      </c>
+      <c r="O19" t="s">
+        <v>52</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>42272</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>156</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>157</v>
+      </c>
+      <c r="J20" t="s">
+        <v>158</v>
+      </c>
+      <c r="K20" t="s">
+        <v>159</v>
+      </c>
+      <c r="L20" t="s">
+        <v>160</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>155</v>
+      </c>
+      <c r="O20" t="s">
+        <v>65</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>161</v>
+      </c>
+      <c r="X20" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>42272</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>164</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>165</v>
+      </c>
+      <c r="J21" t="s">
+        <v>166</v>
+      </c>
+      <c r="K21" t="s">
+        <v>167</v>
+      </c>
+      <c r="L21" t="s">
+        <v>168</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>155</v>
+      </c>
+      <c r="O21" t="s">
+        <v>52</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>4</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>161</v>
+      </c>
+      <c r="X21" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>42272</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>170</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>171</v>
+      </c>
+      <c r="J22" t="s">
+        <v>166</v>
+      </c>
+      <c r="K22" t="s">
+        <v>172</v>
+      </c>
+      <c r="L22" t="s">
+        <v>173</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>155</v>
+      </c>
+      <c r="O22" t="s">
+        <v>52</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>3</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S22" t="n">
+        <v>3</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>3</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>161</v>
+      </c>
+      <c r="X22" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>42272</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>175</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>176</v>
+      </c>
+      <c r="J23" t="s">
+        <v>177</v>
+      </c>
+      <c r="K23" t="s">
+        <v>178</v>
+      </c>
+      <c r="L23" t="s">
+        <v>179</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>155</v>
+      </c>
+      <c r="O23" t="s">
+        <v>52</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>161</v>
+      </c>
+      <c r="X23" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>42272</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>181</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>182</v>
+      </c>
+      <c r="J24" t="s">
+        <v>177</v>
+      </c>
+      <c r="K24" t="s">
+        <v>183</v>
+      </c>
+      <c r="L24" t="s">
+        <v>184</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>155</v>
+      </c>
+      <c r="O24" t="s">
+        <v>52</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2</v>
+      </c>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>161</v>
+      </c>
+      <c r="X24" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>42272</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>186</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>187</v>
+      </c>
+      <c r="J25" t="s">
+        <v>188</v>
+      </c>
+      <c r="K25" t="s">
+        <v>189</v>
+      </c>
+      <c r="L25" t="s">
+        <v>190</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>191</v>
+      </c>
+      <c r="O25" t="s">
+        <v>52</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>192</v>
+      </c>
+      <c r="X25" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>42272</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>195</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>196</v>
+      </c>
+      <c r="J26" t="s">
+        <v>197</v>
+      </c>
+      <c r="K26" t="s">
+        <v>198</v>
+      </c>
+      <c r="L26" t="s">
+        <v>199</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>191</v>
+      </c>
+      <c r="O26" t="s">
+        <v>52</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>192</v>
+      </c>
+      <c r="X26" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>42272</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>201</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>202</v>
+      </c>
+      <c r="J27" t="s">
+        <v>203</v>
+      </c>
+      <c r="K27" t="s">
+        <v>204</v>
+      </c>
+      <c r="L27" t="s">
+        <v>205</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>191</v>
+      </c>
+      <c r="O27" t="s">
+        <v>52</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>3</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>1</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>192</v>
+      </c>
+      <c r="X27" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>42272</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>207</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>208</v>
+      </c>
+      <c r="J28" t="s">
+        <v>209</v>
+      </c>
+      <c r="K28" t="s">
+        <v>210</v>
+      </c>
+      <c r="L28" t="s">
+        <v>211</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>191</v>
+      </c>
+      <c r="O28" t="s">
+        <v>57</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>192</v>
+      </c>
+      <c r="X28" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>42272</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>213</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>214</v>
+      </c>
+      <c r="J29" t="s">
+        <v>215</v>
+      </c>
+      <c r="K29" t="s"/>
+      <c r="L29" t="s">
+        <v>90</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>216</v>
+      </c>
+      <c r="O29" t="s">
+        <v>79</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>217</v>
+      </c>
+      <c r="X29" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>42272</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>219</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>220</v>
+      </c>
+      <c r="J30" t="s">
+        <v>221</v>
+      </c>
+      <c r="K30" t="s">
+        <v>222</v>
+      </c>
+      <c r="L30" t="s">
+        <v>223</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>216</v>
+      </c>
+      <c r="O30" t="s">
+        <v>52</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>217</v>
+      </c>
+      <c r="X30" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>42272</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>225</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>226</v>
+      </c>
+      <c r="J31" t="s">
+        <v>227</v>
+      </c>
+      <c r="K31" t="s"/>
+      <c r="L31" t="s">
+        <v>90</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>216</v>
+      </c>
+      <c r="O31" t="s">
+        <v>52</v>
+      </c>
+      <c r="P31" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>3</v>
+      </c>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
+      <c r="S31" t="n">
+        <v>3</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>217</v>
+      </c>
+      <c r="X31" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Denver/Denver_shard_260.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_260.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="341">
   <si>
     <t>STR#</t>
   </si>
@@ -147,18 +147,83 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/05/2018</t>
+    <t>09/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d252925-r611926188-Super_8_by_Wyndham_Parker_SE_Denver_Area-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>33591</t>
+  </si>
+  <si>
+    <t>252925</t>
+  </si>
+  <si>
+    <t>611926188</t>
+  </si>
+  <si>
+    <t>08/29/2018</t>
+  </si>
+  <si>
+    <t>WOW! What a difference!</t>
+  </si>
+  <si>
+    <t>I have stayed here multiple times and the new lobby and breakfast area looks amazing.  Any hotel with renovations is going to be hectic for a while, but what a difference.  There is finally an area for continental breakfast and a modern lobby.  I can't believe people can be so rude and misjudge a place for trying to make improvements.  No pain no gain people!!!! I swear reading some of these reviews make me gag.  Can't please everyone!  I give the hotel credit for making improvements.  In my opinion the hotel rooms are very spacious, clean, and they have a wonderful staff.  I will be returning!!!</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d252925-r596728562-Super_8_by_Wyndham_Parker_SE_Denver_Area-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>596728562</t>
+  </si>
+  <si>
+    <t>07/16/2018</t>
+  </si>
+  <si>
+    <t>Not what it use to be</t>
+  </si>
+  <si>
+    <t>I asked for a quiet room adding that I needed to sleep and my small dog would be with my hubs and me. I checked in while the hubs was with family to get the dog settled in and besides I was totally exhausted, I was told over the phone because I always contact the hotel locally to insure a smooth transition with my pet and was assured the hotel was pet friendly. I had stayed there once a couple years back and found it to be delightful and very pet friendly. I was told there was some painting going on but that it shouldn't affect me in any way whatsoever.
+At check in I noticed the entire lobby was under major reconstruction which meant the breakfast area was not available, nor the route to get to the rooms or the valet carts. Then she hit me with the fee for pets. I protested that no one said anything about a fee for pets when I booked the room or when I called the hotel directly. I then added I would cancel and book elsewhere but was told when I book the reservation that I was already past the cancellation time so I could not cancel. I still I protested that no one said anything about a pet fee and could she waive it, after all, I was a Wyndham Rewards Member. No, she said she couldn't. If it was...I asked for a quiet room adding that I needed to sleep and my small dog would be with my hubs and me. I checked in while the hubs was with family to get the dog settled in and besides I was totally exhausted, I was told over the phone because I always contact the hotel locally to insure a smooth transition with my pet and was assured the hotel was pet friendly. I had stayed there once a couple years back and found it to be delightful and very pet friendly. I was told there was some painting going on but that it shouldn't affect me in any way whatsoever.At check in I noticed the entire lobby was under major reconstruction which meant the breakfast area was not available, nor the route to get to the rooms or the valet carts. Then she hit me with the fee for pets. I protested that no one said anything about a fee for pets when I booked the room or when I called the hotel directly. I then added I would cancel and book elsewhere but was told when I book the reservation that I was already past the cancellation time so I could not cancel. I still I protested that no one said anything about a pet fee and could she waive it, after all, I was a Wyndham Rewards Member. No, she said she couldn't. If it was up to her she wouldn't allow pets at all. What a lovely welcome to a pet friendly hotel.So I got back in my car, moved it around to the back and encountered a huge construction dumpster overflowing into the driving lane with construction trash...I better not get a flat tire, my hubby will be very unhappy, not to mention having to drive thru stuff not knowing what the heck it is.Found a parking spot and walked to get the valet cart. Oh my, construction tools all over the floor-wish I'd had my camera handy- and hoped I wouldn't bump into their power tools. got the cart out and loaded the dog kennel, suit cases back packs etc onto the cart. Rolled on up to the sidewalk ramp where a truck had parked which I had to negotiate about 3 inches leeway to get to the door, how rude.Got the door open and proceeded to roll the cart into the hallway to go to my room. More construction tools littering the hallway and the cart got stuck. The door threshold and the floor had a 3 inch wide inch or two deep chunk missing, which meant the front wheels of my cart were stuck, BOOM! the dog yelped, not knowing what was going on, poor dear. I finally got the front wheels unstuck then as I rolled the cart I realized I could bang into the tools and hurt my ankles! So negotiating the tools, I suddenly came to  stop again when the rear wheels hit the place where the floor was missing a chunk. Got that out and rolled to the hallway where I found in the hallway, a very narrow path between the coffee cart, the tools and my destination. By this time I didn't care if I banged into their obstructions. Got the cart to my door and as I opened it, a door down the hall opened and a male screamed, "You stay right there." a woman returned a scream that was mostly incoherent but sounded very slurred and frightening. These two continued on into the night.Got myself in my room and the door locked and collapsed on the bed, with my dog in the kennel.The hubs came to the room with the grands and food. He was appalled by the look of the place. We have stayed in many hotels across this great country and never before had this be our lot in life.Doors slammed all night long...and I mean literally. Just about get to sleep and SLAM!! Do any of these people know how to close a door at a hotel, I think not.Finally breakfast is served...I knew it was a limited breakfast, being in the hallway with construction going on. I went out after walking the dog to find coffee, yogurt, muffins, green bananas and coffee creamer. hmmm... and construction dust on everything, no thanks.The external presentation of the Wyndham location left much to be desired. The last time we were there it was pristine. This time nothing had been hosed down for days, there were great patches of missing plant life and no landscaping, just dirt and large dog leftovers where some thoughtless patron did not bag his poop even tho bags were located in the parking lot.Overall, this property will have a nice lobby when the construction is complete but I felt like the front desk person really did not want me or my dog or anyone's business. She was arrogant and treated me like she could take it or leave it, she really didn't care. WHAT HAPPENED? This was a very nice place two or three years ago. I felt welcome and appreciated. I felt like I was in a good and safe place. Not this visit.I always find a way to give a good rating to everything but this - just no way to find anything positive...oh, the a/c unit in the room worked very well. There I found something good.When I tried to talk to the  person( whom I talked to on the phone and who checked me in) at checkout, she told me none of that was her fault and I could have stayed at another hotel. So there. Just rude....Keep driving....MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>I asked for a quiet room adding that I needed to sleep and my small dog would be with my hubs and me. I checked in while the hubs was with family to get the dog settled in and besides I was totally exhausted, I was told over the phone because I always contact the hotel locally to insure a smooth transition with my pet and was assured the hotel was pet friendly. I had stayed there once a couple years back and found it to be delightful and very pet friendly. I was told there was some painting going on but that it shouldn't affect me in any way whatsoever.
+At check in I noticed the entire lobby was under major reconstruction which meant the breakfast area was not available, nor the route to get to the rooms or the valet carts. Then she hit me with the fee for pets. I protested that no one said anything about a fee for pets when I booked the room or when I called the hotel directly. I then added I would cancel and book elsewhere but was told when I book the reservation that I was already past the cancellation time so I could not cancel. I still I protested that no one said anything about a pet fee and could she waive it, after all, I was a Wyndham Rewards Member. No, she said she couldn't. If it was...I asked for a quiet room adding that I needed to sleep and my small dog would be with my hubs and me. I checked in while the hubs was with family to get the dog settled in and besides I was totally exhausted, I was told over the phone because I always contact the hotel locally to insure a smooth transition with my pet and was assured the hotel was pet friendly. I had stayed there once a couple years back and found it to be delightful and very pet friendly. I was told there was some painting going on but that it shouldn't affect me in any way whatsoever.At check in I noticed the entire lobby was under major reconstruction which meant the breakfast area was not available, nor the route to get to the rooms or the valet carts. Then she hit me with the fee for pets. I protested that no one said anything about a fee for pets when I booked the room or when I called the hotel directly. I then added I would cancel and book elsewhere but was told when I book the reservation that I was already past the cancellation time so I could not cancel. I still I protested that no one said anything about a pet fee and could she waive it, after all, I was a Wyndham Rewards Member. No, she said she couldn't. If it was up to her she wouldn't allow pets at all. What a lovely welcome to a pet friendly hotel.So I got back in my car, moved it around to the back and encountered a huge construction dumpster overflowing into the driving lane with construction trash...I better not get a flat tire, my hubby will be very unhappy, not to mention having to drive thru stuff not knowing what the heck it is.Found a parking spot and walked to get the valet cart. Oh my, construction tools all over the floor-wish I'd had my camera handy- and hoped I wouldn't bump into their power tools. got the cart out and loaded the dog kennel, suit cases back packs etc onto the cart. Rolled on up to the sidewalk ramp where a truck had parked which I had to negotiate about 3 inches leeway to get to the door, how rude.Got the door open and proceeded to roll the cart into the hallway to go to my room. More construction tools littering the hallway and the cart got stuck. The door threshold and the floor had a 3 inch wide inch or two deep chunk missing, which meant the front wheels of my cart were stuck, BOOM! the dog yelped, not knowing what was going on, poor dear. I finally got the front wheels unstuck then as I rolled the cart I realized I could bang into the tools and hurt my ankles! So negotiating the tools, I suddenly came to  stop again when the rear wheels hit the place where the floor was missing a chunk. Got that out and rolled to the hallway where I found in the hallway, a very narrow path between the coffee cart, the tools and my destination. By this time I didn't care if I banged into their obstructions. Got the cart to my door and as I opened it, a door down the hall opened and a male screamed, "You stay right there." a woman returned a scream that was mostly incoherent but sounded very slurred and frightening. These two continued on into the night.Got myself in my room and the door locked and collapsed on the bed, with my dog in the kennel.The hubs came to the room with the grands and food. He was appalled by the look of the place. We have stayed in many hotels across this great country and never before had this be our lot in life.Doors slammed all night long...and I mean literally. Just about get to sleep and SLAM!! Do any of these people know how to close a door at a hotel, I think not.Finally breakfast is served...I knew it was a limited breakfast, being in the hallway with construction going on. I went out after walking the dog to find coffee, yogurt, muffins, green bananas and coffee creamer. hmmm... and construction dust on everything, no thanks.The external presentation of the Wyndham location left much to be desired. The last time we were there it was pristine. This time nothing had been hosed down for days, there were great patches of missing plant life and no landscaping, just dirt and large dog leftovers where some thoughtless patron did not bag his poop even tho bags were located in the parking lot.Overall, this property will have a nice lobby when the construction is complete but I felt like the front desk person really did not want me or my dog or anyone's business. She was arrogant and treated me like she could take it or leave it, she really didn't care. WHAT HAPPENED? This was a very nice place two or three years ago. I felt welcome and appreciated. I felt like I was in a good and safe place. Not this visit.I always find a way to give a good rating to everything but this - just no way to find anything positive...oh, the a/c unit in the room worked very well. There I found something good.When I tried to talk to the  person( whom I talked to on the phone and who checked me in) at checkout, she told me none of that was her fault and I could have stayed at another hotel. So there. Just rude....Keep driving....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d252925-r595159924-Super_8_by_Wyndham_Parker_SE_Denver_Area-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>595159924</t>
+  </si>
+  <si>
+    <t>07/11/2018</t>
+  </si>
+  <si>
+    <t>Unacceptable Conditions</t>
+  </si>
+  <si>
+    <t>No thought as to handle check in and breakfast during remodeling. The check in area set up with one person sitting behind a small desk in a foyer areas of maybe 5 x 8 does not say welcome. Addition no previous notice that property was in process of remodeling only tells me SURPRISE you were not expecting this were you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d252925-r592017000-Super_8_by_Wyndham_Parker_SE_Denver_Area-Parker_Colorado.html</t>
   </si>
   <si>
-    <t>33591</t>
-  </si>
-  <si>
-    <t>252925</t>
-  </si>
-  <si>
     <t>592017000</t>
   </si>
   <si>
@@ -174,9 +239,6 @@
     <t>June 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d252925-r591999627-Super_8_by_Wyndham_Parker_SE_Denver_Area-Parker_Colorado.html</t>
   </si>
   <si>
@@ -213,7 +275,40 @@
     <t>May 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d252925-r578415701-Super_8_by_Wyndham_Parker_SE_Denver_Area-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>578415701</t>
+  </si>
+  <si>
+    <t>05/06/2018</t>
+  </si>
+  <si>
+    <t>Very expensive for cheap hotel</t>
+  </si>
+  <si>
+    <t>Rooms are 1970's, stale smoke smell.  Remodeling so continental breakfast is fruit, yogurt, muffin and coffee.  Juice was empty and 100.00 a night is a rip off with no pool, spa and Internet is sketchy.  Had to stay here because we got ran off the road on our Harley.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d252925-r572909153-Super_8_by_Wyndham_Parker_SE_Denver_Area-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>572909153</t>
+  </si>
+  <si>
+    <t>04/12/2018</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d252925-r566302405-Super_8_by_Wyndham_Parker_SE_Denver_Area-Parker_Colorado.html</t>
@@ -255,7 +350,49 @@
     <t>02/15/2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d252925-r551746758-Super_8_by_Wyndham_Parker_SE_Denver_Area-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>551746758</t>
+  </si>
+  <si>
+    <t>01/05/2018</t>
+  </si>
+  <si>
+    <t>Good with pets</t>
+  </si>
+  <si>
+    <t>We stayed here with our dog for a few days. The pet fees were very reasonable, and the hotel was clean. The breakfast was pretty limited, but it had all the basics including decent coffee. We would stay here again if traveling to the area with our dog. MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>Mindy S, General Manager at Super 8 by Wyndham Parker/SE Denver Area, responded to this reviewResponded January 6, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 6, 2018</t>
+  </si>
+  <si>
+    <t>We stayed here with our dog for a few days. The pet fees were very reasonable, and the hotel was clean. The breakfast was pretty limited, but it had all the basics including decent coffee. We would stay here again if traveling to the area with our dog. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d252925-r549755333-Super_8_by_Wyndham_Parker_SE_Denver_Area-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>549755333</t>
+  </si>
+  <si>
+    <t>12/28/2017</t>
+  </si>
+  <si>
+    <t>Clean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The staff is fabulous, rooms are clean but beds are very uncomfortable. Rooms should have a microwave and small fridge. Breakfast is mediocre, could be much better. Cleanliness and staff would be enough for me to stay again. </t>
+  </si>
+  <si>
+    <t>December 2017</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d252925-r549210290-Super_8_by_Wyndham_Parker_SE_Denver_Area-Parker_Colorado.html</t>
@@ -273,12 +410,6 @@
     <t>no I do not wish to share. but since you forced me - there was no apparent way to turn the shower on (instead of tub)</t>
   </si>
   <si>
-    <t>December 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d252925-r544119635-Super_8_by_Wyndham_Parker_SE_Denver_Area-Parker_Colorado.html</t>
   </si>
   <si>
@@ -288,21 +419,12 @@
     <t>11/29/2017</t>
   </si>
   <si>
-    <t>MoreShow less</t>
-  </si>
-  <si>
-    <t>November 2017</t>
-  </si>
-  <si>
     <t>Mindy S, General Manager at Super 8 by Wyndham Parker/SE Denver Area, responded to this reviewResponded December 2, 2017</t>
   </si>
   <si>
     <t>Responded December 2, 2017</t>
   </si>
   <si>
-    <t>More</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d252925-r542063258-Super_8_by_Wyndham_Parker_SE_Denver_Area-Parker_Colorado.html</t>
   </si>
   <si>
@@ -327,30 +449,63 @@
     <t>I usually stay here when I travel to the Denver area. The rooms are always clean. And they have smoking rooms which is great for me.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d252925-r536646451-Super_8_by_Wyndham_Parker_SE_Denver_Area-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>536646451</t>
+  </si>
+  <si>
+    <t>10/28/2017</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>Mindy S, General Manager at Super 8 by Wyndham Parker/SE Denver Area, responded to this reviewResponded October 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 30, 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d252925-r534377250-Super_8_by_Wyndham_Parker_SE_Denver_Area-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>534377250</t>
+  </si>
+  <si>
+    <t>10/19/2017</t>
+  </si>
+  <si>
+    <t>Great hotel and cost</t>
+  </si>
+  <si>
+    <t>Our family was treated very well!  Our room was spotless all of the appliances were in great working order, the service is excellent. Any visitor would be very happy to stay because the staff is fabulous.  Mindy went above and beyond to make sure our stay was perfect.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Mindy S, General Manager at Super 8 by Wyndham Parker/SE Denver Area, responded to this reviewResponded October 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 23, 2017</t>
+  </si>
+  <si>
+    <t>Our family was treated very well!  Our room was spotless all of the appliances were in great working order, the service is excellent. Any visitor would be very happy to stay because the staff is fabulous.  Mindy went above and beyond to make sure our stay was perfect.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d252925-r534373803-Super_8_by_Wyndham_Parker_SE_Denver_Area-Parker_Colorado.html</t>
   </si>
   <si>
     <t>534373803</t>
   </si>
   <si>
-    <t>10/19/2017</t>
-  </si>
-  <si>
     <t>Great place....So quite!!</t>
   </si>
   <si>
     <t>The staff was very helpful and kind.  We stayed here while a family member was in the hospital and the staff asked us everyday with an update.  I have a hard time remembering people but yet this hotel keeps details in mind.  The room was large and super clean.  I would recommend this hotel to anyone who comes into town.MoreShow less</t>
   </si>
   <si>
-    <t>October 2017</t>
-  </si>
-  <si>
-    <t>Mindy S, General Manager at Super 8 by Wyndham Parker/SE Denver Area, responded to this reviewResponded October 23, 2017</t>
-  </si>
-  <si>
-    <t>Responded October 23, 2017</t>
-  </si>
-  <si>
     <t>The staff was very helpful and kind.  We stayed here while a family member was in the hospital and the staff asked us everyday with an update.  I have a hard time remembering people but yet this hotel keeps details in mind.  The room was large and super clean.  I would recommend this hotel to anyone who comes into town.More</t>
   </si>
   <si>
@@ -384,9 +539,6 @@
     <t>Our stay was very comfortable. The beds were excellent.   We were in process of moving our daughter and had vacated the home. This was our  "home"  for two nights in that time frame. MoreShow less</t>
   </si>
   <si>
-    <t>September 2017</t>
-  </si>
-  <si>
     <t>Mindy S, General Manager at Super 8 by Wyndham Parker/SE Denver Area, responded to this reviewResponded October 5, 2017</t>
   </si>
   <si>
@@ -396,6 +548,27 @@
     <t>Our stay was very comfortable. The beds were excellent.   We were in process of moving our daughter and had vacated the home. This was our  "home"  for two nights in that time frame. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d252925-r527379609-Super_8_by_Wyndham_Parker_SE_Denver_Area-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>527379609</t>
+  </si>
+  <si>
+    <t>09/25/2017</t>
+  </si>
+  <si>
+    <t>Super 8 P{arker Feedback</t>
+  </si>
+  <si>
+    <t>The staff and services seemed to be very good. However, the beds were the worst I have ever slept on. I understand is it a Super 8 and not a 5 star hotel, but the beds were so hard it was impossible to get comfortable.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d252925-r527317781-Super_8_by_Wyndham_Parker_SE_Denver_Area-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>527317781</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d252925-r526792641-Super_8_by_Wyndham_Parker_SE_Denver_Area-Parker_Colorado.html</t>
   </si>
   <si>
@@ -441,6 +614,42 @@
     <t>When you stay at a hotel or motel, you want complete satisfaction.  Absolutely, everything was.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d252925-r515181048-Super_8_by_Wyndham_Parker_SE_Denver_Area-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>515181048</t>
+  </si>
+  <si>
+    <t>08/19/2017</t>
+  </si>
+  <si>
+    <t>Clean and comfortable</t>
+  </si>
+  <si>
+    <t>Room was very clean and comfortable.  Unfortunately the elevator was not working for my stay, but I was given a room on the first floor so I didn't have to use the stairs.  My only criticism is that the car park security lights are so bright that the light comes into the bedroom around the edges of the curtains.  I woke up at 3am and thought it was morning, they were so bright!</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d252925-r506590086-Super_8_by_Wyndham_Parker_SE_Denver_Area-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>506590086</t>
+  </si>
+  <si>
+    <t>07/28/2017</t>
+  </si>
+  <si>
+    <t>Very nice hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We had a great stay at the Super 8. The room was extremely nice and spacious. Staff was courteous. Even thought the hotel appeared to be completely booked, it was really quiet </t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d252925-r506012970-Super_8_by_Wyndham_Parker_SE_Denver_Area-Parker_Colorado.html</t>
   </si>
   <si>
@@ -456,9 +665,6 @@
     <t xml:space="preserve">Could not send out emails via the wifi in the room.  I don't know if they had a block on sending out email via my gmail account.  That was frustrating.  Other than that, the rest of my stay was very pleasant.  </t>
   </si>
   <si>
-    <t>July 2017</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d252925-r503698841-Super_8_by_Wyndham_Parker_SE_Denver_Area-Parker_Colorado.html</t>
   </si>
   <si>
@@ -486,6 +692,39 @@
     <t>June 2017</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d252925-r498273546-Super_8_by_Wyndham_Parker_SE_Denver_Area-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>498273546</t>
+  </si>
+  <si>
+    <t>07/03/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d252925-r496955274-Super_8_by_Wyndham_Parker_SE_Denver_Area-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>496955274</t>
+  </si>
+  <si>
+    <t>06/28/2017</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>We stayed here twice for two nights each time last week.  We had an AC problem the first night.  The extremely nice lady that checked us in was great.  She went out of her way to make sure we were taken care of.  We will definitely be staying here our next trip to Parker.   MoreShow less</t>
+  </si>
+  <si>
+    <t>Mindy S, Manager at Super 8 by Wyndham Parker/SE Denver Area, responded to this reviewResponded July 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 3, 2017</t>
+  </si>
+  <si>
+    <t>We stayed here twice for two nights each time last week.  We had an AC problem the first night.  The extremely nice lady that checked us in was great.  She went out of her way to make sure we were taken care of.  We will definitely be staying here our next trip to Parker.   More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d252925-r496615721-Super_8_by_Wyndham_Parker_SE_Denver_Area-Parker_Colorado.html</t>
   </si>
   <si>
@@ -501,12 +740,6 @@
     <t>I was able to get my room quickly, the staff were friendly and helpful. The Non-Smoking room was Clean and welcoming. I had no trouble asking for info about dining or other options. Overall a nice place - Friendly Folks and a great Value!!  MoreShow less</t>
   </si>
   <si>
-    <t>Mindy S, Manager at Super 8 by Wyndham Parker/SE Denver Area, responded to this reviewResponded July 3, 2017</t>
-  </si>
-  <si>
-    <t>Responded July 3, 2017</t>
-  </si>
-  <si>
     <t>I was able to get my room quickly, the staff were friendly and helpful. The Non-Smoking room was Clean and welcoming. I had no trouble asking for info about dining or other options. Overall a nice place - Friendly Folks and a great Value!!  More</t>
   </si>
   <si>
@@ -543,6 +776,42 @@
     <t>The staff was friendly the room wasn't bad just basic room clean carpets didn't stink like our last room decent place to stay and very competitive price.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d252925-r494697987-Super_8_by_Wyndham_Parker_SE_Denver_Area-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>494697987</t>
+  </si>
+  <si>
+    <t>06/20/2017</t>
+  </si>
+  <si>
+    <t>Bad Experience</t>
+  </si>
+  <si>
+    <t>Late night checkin. Couple in parking lot doing not sure what when we parked our vehicleStaff at checkin not knowledgeableRoom was dirty and staleIf it hadn't been so late we would have looked elsewhereFeel reviews on TripAdvisor were very misleadingMoreShow less</t>
+  </si>
+  <si>
+    <t>Late night checkin. Couple in parking lot doing not sure what when we parked our vehicleStaff at checkin not knowledgeableRoom was dirty and staleIf it hadn't been so late we would have looked elsewhereFeel reviews on TripAdvisor were very misleadingMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d252925-r492573442-Super_8_by_Wyndham_Parker_SE_Denver_Area-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>492573442</t>
+  </si>
+  <si>
+    <t>06/12/2017</t>
+  </si>
+  <si>
+    <t>nice stay</t>
+  </si>
+  <si>
+    <t>Great stay - I did not rate breakfast or internet because I did not use these services. However I'm sure they are fine.MoreShow less</t>
+  </si>
+  <si>
+    <t>Great stay - I did not rate breakfast or internet because I did not use these services. However I'm sure they are fine.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d252925-r491613051-Super_8_by_Wyndham_Parker_SE_Denver_Area-Parker_Colorado.html</t>
   </si>
   <si>
@@ -603,15 +872,42 @@
     <t>qualities:quiet......very clean....excellent staff ensures attention to whatever a guest might need.....ready access to parker road so getting anywhere is easy.  my room included a small couch and little "kitchen" area....good for longer stays.... most important...the new owners bring a dignity and calm to the entire establishment.i thank them for their attention to my needs....More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d252925-r488488960-Super_8_by_Wyndham_Parker_SE_Denver_Area-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>488488960</t>
+  </si>
+  <si>
+    <t>05/28/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d252925-r487768075-Super_8_by_Wyndham_Parker_SE_Denver_Area-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>487768075</t>
+  </si>
+  <si>
+    <t>05/25/2017</t>
+  </si>
+  <si>
+    <t>great place to stay.</t>
+  </si>
+  <si>
+    <t>Friendly staff.  Very clean location.  Slept like a baby in what seemed to be a brand new bed, so comfortable.  This will be my go to place when I'm in the area.  Did not expect this from a Super 8, what a pleasant surprise!!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Friendly staff.  Very clean location.  Slept like a baby in what seemed to be a brand new bed, so comfortable.  This will be my go to place when I'm in the area.  Did not expect this from a Super 8, what a pleasant surprise!!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d252925-r487739284-Super_8_by_Wyndham_Parker_SE_Denver_Area-Parker_Colorado.html</t>
   </si>
   <si>
     <t>487739284</t>
   </si>
   <si>
-    <t>05/25/2017</t>
-  </si>
-  <si>
     <t>graduation Chris</t>
   </si>
   <si>
@@ -657,6 +953,42 @@
     <t>Everything was good except we were next door to a group of people who did not go to bed until around 4 in the morning, they were not really loud but apparently the walls are thin. We had to get up at 5, so i guess it was hard for them to slerp, lolMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d252925-r480712220-Super_8_by_Wyndham_Parker_SE_Denver_Area-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>480712220</t>
+  </si>
+  <si>
+    <t>05/01/2017</t>
+  </si>
+  <si>
+    <t>Good value for the money</t>
+  </si>
+  <si>
+    <t>Stayed here for two nights in April.  Staff was very friendly, hotel was quiet and clean, I felt it was good value for the money.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here for two nights in April.  Staff was very friendly, hotel was quiet and clean, I felt it was good value for the money.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d252925-r478906935-Super_8_by_Wyndham_Parker_SE_Denver_Area-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>478906935</t>
+  </si>
+  <si>
+    <t>04/25/2017</t>
+  </si>
+  <si>
+    <t>Great rooms, horrible "breakfast"</t>
+  </si>
+  <si>
+    <t>The rooms were nice but when I see "free breakfast" I expect more than just fruit, yogurt; and cereal. MoreShow less</t>
+  </si>
+  <si>
+    <t>The rooms were nice but when I see "free breakfast" I expect more than just fruit, yogurt; and cereal. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d252925-r476179056-Super_8_by_Wyndham_Parker_SE_Denver_Area-Parker_Colorado.html</t>
   </si>
   <si>
@@ -666,9 +998,6 @@
     <t>04/16/2017</t>
   </si>
   <si>
-    <t>April 2017</t>
-  </si>
-  <si>
     <t>damonh754, Manager at Super 8 by Wyndham Parker/SE Denver Area, responded to this reviewResponded April 17, 2017</t>
   </si>
   <si>
@@ -700,6 +1029,18 @@
   </si>
   <si>
     <t>04/06/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33591-d252925-r470872095-Super_8_by_Wyndham_Parker_SE_Denver_Area-Parker_Colorado.html</t>
+  </si>
+  <si>
+    <t>470872095</t>
+  </si>
+  <si>
+    <t>03/28/2017</t>
+  </si>
+  <si>
+    <t>March 2017</t>
   </si>
 </sst>
 </file>
@@ -1234,7 +1575,7 @@
         <v>50</v>
       </c>
       <c r="M2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N2" t="s">
         <v>51</v>
@@ -1242,21 +1583,17 @@
       <c r="O2" t="s">
         <v>52</v>
       </c>
-      <c r="P2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>3</v>
-      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
       <c r="R2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -1292,28 +1629,30 @@
         <v>54</v>
       </c>
       <c r="J3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="K3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="O3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P3" t="n">
         <v>1</v>
       </c>
       <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
+      <c r="R3" t="n">
+        <v>4</v>
+      </c>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
@@ -1325,7 +1664,7 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
@@ -1341,7 +1680,7 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G4" t="s">
         <v>45</v>
@@ -1350,41 +1689,41 @@
         <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="O4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q4" t="n">
+        <v>4</v>
+      </c>
+      <c r="R4" t="n">
         <v>3</v>
-      </c>
-      <c r="R4" t="n">
-        <v>5</v>
       </c>
       <c r="S4" t="n">
         <v>4</v>
       </c>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -1392,7 +1731,7 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
@@ -1408,7 +1747,7 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G5" t="s">
         <v>45</v>
@@ -1417,41 +1756,41 @@
         <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O5" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R5" t="n">
         <v>3</v>
       </c>
       <c r="S5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1459,7 +1798,7 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
@@ -1475,53 +1814,53 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
+        <v>69</v>
+      </c>
+      <c r="K6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
         <v>72</v>
       </c>
-      <c r="G6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" t="s">
-        <v>73</v>
-      </c>
-      <c r="J6" t="s">
-        <v>74</v>
-      </c>
-      <c r="K6" t="s"/>
-      <c r="L6" t="s"/>
-      <c r="M6" t="n">
-        <v>3</v>
-      </c>
-      <c r="N6" t="s">
-        <v>75</v>
-      </c>
       <c r="O6" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="P6" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>3</v>
-      </c>
-      <c r="R6" t="n">
-        <v>4</v>
-      </c>
-      <c r="S6" t="n">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
-      <c r="Y6" t="s"/>
+      <c r="Y6" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1536,7 +1875,7 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s">
         <v>45</v>
@@ -1545,44 +1884,50 @@
         <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J7" t="s">
-        <v>78</v>
-      </c>
-      <c r="K7" t="s"/>
-      <c r="L7" t="s"/>
+        <v>81</v>
+      </c>
+      <c r="K7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" t="s">
+        <v>83</v>
+      </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="O7" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="P7" t="n">
         <v>5</v>
       </c>
       <c r="Q7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S7" t="n">
         <v>4</v>
       </c>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
-      <c r="Y7" t="s"/>
+      <c r="Y7" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1597,7 +1942,7 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G8" t="s">
         <v>45</v>
@@ -1606,49 +1951,39 @@
         <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="J8" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K8" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="L8" t="s">
+        <v>89</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
         <v>84</v>
       </c>
-      <c r="M8" t="n">
-        <v>4</v>
-      </c>
-      <c r="N8" t="s">
-        <v>85</v>
-      </c>
       <c r="O8" t="s">
-        <v>86</v>
-      </c>
-      <c r="P8" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>5</v>
-      </c>
-      <c r="R8" t="n">
-        <v>5</v>
-      </c>
-      <c r="S8" t="n">
-        <v>5</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>5</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9">
@@ -1664,7 +1999,7 @@
         <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G9" t="s">
         <v>45</v>
@@ -1673,51 +2008,47 @@
         <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J9" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="O9" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="P9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s">
-        <v>92</v>
-      </c>
-      <c r="X9" t="s">
-        <v>93</v>
-      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10">
@@ -1733,7 +2064,7 @@
         <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G10" t="s">
         <v>45</v>
@@ -1742,53 +2073,49 @@
         <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K10" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L10" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="O10" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="P10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s">
-        <v>100</v>
-      </c>
-      <c r="X10" t="s">
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
         <v>101</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="11">
@@ -1818,27 +2145,29 @@
       <c r="J11" t="s">
         <v>105</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" t="s"/>
+      <c r="L11" t="s"/>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
         <v>106</v>
       </c>
-      <c r="L11" t="s">
-        <v>107</v>
-      </c>
-      <c r="M11" t="n">
-        <v>5</v>
-      </c>
-      <c r="N11" t="s">
-        <v>108</v>
-      </c>
       <c r="O11" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="P11" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q11" t="s"/>
-      <c r="R11" t="s"/>
-      <c r="S11" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="n">
+        <v>4</v>
+      </c>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
         <v>5</v>
@@ -1846,15 +2175,9 @@
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s">
-        <v>109</v>
-      </c>
-      <c r="X11" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>111</v>
-      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1869,7 +2192,7 @@
         <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G12" t="s">
         <v>45</v>
@@ -1878,48 +2201,44 @@
         <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="J12" t="s">
-        <v>105</v>
-      </c>
-      <c r="K12" t="s">
-        <v>114</v>
-      </c>
-      <c r="L12" t="s">
-        <v>115</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="K12" t="s"/>
+      <c r="L12" t="s"/>
       <c r="M12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O12" t="s">
-        <v>52</v>
-      </c>
-      <c r="P12" t="s"/>
-      <c r="Q12" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
       <c r="R12" t="n">
-        <v>5</v>
-      </c>
-      <c r="S12" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s">
-        <v>109</v>
-      </c>
-      <c r="X12" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>116</v>
-      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1934,62 +2253,52 @@
         <v>43</v>
       </c>
       <c r="F13" t="s">
+        <v>110</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>111</v>
+      </c>
+      <c r="J13" t="s">
+        <v>112</v>
+      </c>
+      <c r="K13" t="s">
+        <v>113</v>
+      </c>
+      <c r="L13" t="s">
+        <v>114</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>115</v>
+      </c>
+      <c r="O13" t="s">
+        <v>90</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>116</v>
+      </c>
+      <c r="X13" t="s">
         <v>117</v>
       </c>
-      <c r="G13" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" t="s">
-        <v>46</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="Y13" t="s">
         <v>118</v>
-      </c>
-      <c r="J13" t="s">
-        <v>119</v>
-      </c>
-      <c r="K13" t="s">
-        <v>120</v>
-      </c>
-      <c r="L13" t="s">
-        <v>121</v>
-      </c>
-      <c r="M13" t="n">
-        <v>4</v>
-      </c>
-      <c r="N13" t="s">
-        <v>122</v>
-      </c>
-      <c r="O13" t="s">
-        <v>52</v>
-      </c>
-      <c r="P13" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>5</v>
-      </c>
-      <c r="R13" t="n">
-        <v>4</v>
-      </c>
-      <c r="S13" t="n">
-        <v>4</v>
-      </c>
-      <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>4</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" t="s">
-        <v>123</v>
-      </c>
-      <c r="X13" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="14">
@@ -2005,7 +2314,7 @@
         <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="G14" t="s">
         <v>45</v>
@@ -2014,41 +2323,41 @@
         <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="J14" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="K14" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="L14" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>124</v>
+      </c>
+      <c r="O14" t="s">
+        <v>59</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="n">
         <v>3</v>
       </c>
-      <c r="N14" t="s">
-        <v>122</v>
-      </c>
-      <c r="O14" t="s">
-        <v>79</v>
-      </c>
-      <c r="P14" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>4</v>
-      </c>
       <c r="R14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -2056,7 +2365,7 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15">
@@ -2072,7 +2381,7 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="G15" t="s">
         <v>45</v>
@@ -2081,31 +2390,31 @@
         <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="J15" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="K15" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="L15" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="O15" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="P15" t="n">
         <v>5</v>
       </c>
       <c r="Q15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R15" t="n">
         <v>5</v>
@@ -2123,7 +2432,7 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16">
@@ -2139,7 +2448,7 @@
         <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="G16" t="s">
         <v>45</v>
@@ -2148,28 +2457,26 @@
         <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="J16" t="s">
-        <v>138</v>
-      </c>
-      <c r="K16" t="s">
-        <v>139</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="K16" t="s"/>
       <c r="L16" t="s">
-        <v>140</v>
+        <v>94</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="O16" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="P16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q16" t="n">
         <v>5</v>
@@ -2178,7 +2485,7 @@
         <v>5</v>
       </c>
       <c r="S16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
@@ -2187,10 +2494,14 @@
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
+      <c r="W16" t="s">
+        <v>133</v>
+      </c>
+      <c r="X16" t="s">
+        <v>134</v>
+      </c>
       <c r="Y16" t="s">
-        <v>140</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17">
@@ -2206,7 +2517,7 @@
         <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="G17" t="s">
         <v>45</v>
@@ -2215,49 +2526,53 @@
         <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="J17" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="K17" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="L17" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="O17" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="P17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R17" t="n">
         <v>4</v>
       </c>
       <c r="S17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s"/>
-      <c r="X17" t="s"/>
+      <c r="W17" t="s">
+        <v>140</v>
+      </c>
+      <c r="X17" t="s">
+        <v>141</v>
+      </c>
       <c r="Y17" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18">
@@ -2273,7 +2588,7 @@
         <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G18" t="s">
         <v>45</v>
@@ -2282,13 +2597,15 @@
         <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="J18" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="K18" t="s"/>
-      <c r="L18" t="s"/>
+      <c r="L18" t="s">
+        <v>94</v>
+      </c>
       <c r="M18" t="n">
         <v>3</v>
       </c>
@@ -2296,30 +2613,36 @@
         <v>146</v>
       </c>
       <c r="O18" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="P18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s"/>
-      <c r="X18" t="s"/>
-      <c r="Y18" t="s"/>
+      <c r="W18" t="s">
+        <v>147</v>
+      </c>
+      <c r="X18" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2334,47 +2657,41 @@
         <v>43</v>
       </c>
       <c r="F19" t="s">
+        <v>149</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
         <v>150</v>
       </c>
-      <c r="G19" t="s">
-        <v>45</v>
-      </c>
-      <c r="H19" t="s">
-        <v>46</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>151</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>152</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>153</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
         <v>154</v>
-      </c>
-      <c r="M19" t="n">
-        <v>4</v>
-      </c>
-      <c r="N19" t="s">
-        <v>155</v>
       </c>
       <c r="O19" t="s">
         <v>52</v>
       </c>
-      <c r="P19" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>4</v>
-      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
       <c r="R19" t="n">
-        <v>3</v>
-      </c>
-      <c r="S19" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
         <v>5</v>
@@ -2382,10 +2699,14 @@
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s"/>
-      <c r="X19" t="s"/>
+      <c r="W19" t="s">
+        <v>155</v>
+      </c>
+      <c r="X19" t="s">
+        <v>156</v>
+      </c>
       <c r="Y19" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20">
@@ -2401,7 +2722,7 @@
         <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G20" t="s">
         <v>45</v>
@@ -2410,53 +2731,47 @@
         <v>46</v>
       </c>
       <c r="I20" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J20" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="K20" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L20" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="O20" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
       </c>
-      <c r="Q20" t="n">
-        <v>4</v>
-      </c>
-      <c r="R20" t="n">
-        <v>4</v>
-      </c>
-      <c r="S20" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="X20" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y20" t="s">
         <v>162</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="21">
@@ -2472,47 +2787,41 @@
         <v>43</v>
       </c>
       <c r="F21" t="s">
+        <v>163</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
         <v>164</v>
       </c>
-      <c r="G21" t="s">
-        <v>45</v>
-      </c>
-      <c r="H21" t="s">
-        <v>46</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
+        <v>151</v>
+      </c>
+      <c r="K21" t="s">
         <v>165</v>
       </c>
-      <c r="J21" t="s">
+      <c r="L21" t="s">
         <v>166</v>
       </c>
-      <c r="K21" t="s">
-        <v>167</v>
-      </c>
-      <c r="L21" t="s">
-        <v>168</v>
-      </c>
       <c r="M21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="O21" t="s">
-        <v>52</v>
-      </c>
-      <c r="P21" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>3</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
       <c r="R21" t="n">
         <v>5</v>
       </c>
-      <c r="S21" t="n">
-        <v>4</v>
-      </c>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
         <v>5</v>
@@ -2521,13 +2830,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="X21" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="Y21" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22">
@@ -2543,62 +2852,62 @@
         <v>43</v>
       </c>
       <c r="F22" t="s">
+        <v>168</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>169</v>
+      </c>
+      <c r="J22" t="s">
         <v>170</v>
       </c>
-      <c r="G22" t="s">
-        <v>45</v>
-      </c>
-      <c r="H22" t="s">
-        <v>46</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="K22" t="s">
         <v>171</v>
       </c>
-      <c r="J22" t="s">
-        <v>166</v>
-      </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>172</v>
       </c>
-      <c r="L22" t="s">
-        <v>173</v>
-      </c>
       <c r="M22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O22" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="P22" t="n">
         <v>4</v>
       </c>
       <c r="Q22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="X22" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="Y22" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23">
@@ -2614,7 +2923,7 @@
         <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G23" t="s">
         <v>45</v>
@@ -2623,51 +2932,47 @@
         <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J23" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K23" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L23" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O23" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="P23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s">
-        <v>161</v>
-      </c>
-      <c r="X23" t="s">
-        <v>162</v>
-      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
       <c r="Y23" t="s">
         <v>180</v>
       </c>
@@ -2697,50 +3002,44 @@
         <v>182</v>
       </c>
       <c r="J24" t="s">
-        <v>177</v>
-      </c>
-      <c r="K24" t="s">
-        <v>183</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="K24" t="s"/>
       <c r="L24" t="s">
-        <v>184</v>
+        <v>94</v>
       </c>
       <c r="M24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O24" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="P24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S24" t="n">
         <v>2</v>
       </c>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s">
-        <v>161</v>
-      </c>
-      <c r="X24" t="s">
-        <v>162</v>
-      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>185</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25">
@@ -2756,58 +3055,58 @@
         <v>43</v>
       </c>
       <c r="F25" t="s">
+        <v>183</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>184</v>
+      </c>
+      <c r="J25" t="s">
+        <v>185</v>
+      </c>
+      <c r="K25" t="s">
         <v>186</v>
       </c>
-      <c r="G25" t="s">
-        <v>45</v>
-      </c>
-      <c r="H25" t="s">
-        <v>46</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="L25" t="s">
         <v>187</v>
       </c>
-      <c r="J25" t="s">
-        <v>188</v>
-      </c>
-      <c r="K25" t="s">
-        <v>189</v>
-      </c>
-      <c r="L25" t="s">
-        <v>190</v>
-      </c>
       <c r="M25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
       <c r="O25" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="P25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q25" t="n">
-        <v>5</v>
-      </c>
-      <c r="R25" t="s"/>
-      <c r="S25" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s">
-        <v>192</v>
-      </c>
-      <c r="X25" t="s">
-        <v>193</v>
-      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26">
@@ -2823,7 +3122,7 @@
         <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="G26" t="s">
         <v>45</v>
@@ -2832,31 +3131,31 @@
         <v>46</v>
       </c>
       <c r="I26" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="J26" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="K26" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="L26" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="M26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
       <c r="O26" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
       </c>
       <c r="Q26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R26" t="n">
         <v>5</v>
@@ -2871,14 +3170,10 @@
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s">
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
         <v>192</v>
-      </c>
-      <c r="X26" t="s">
-        <v>193</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="27">
@@ -2894,7 +3189,7 @@
         <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="G27" t="s">
         <v>45</v>
@@ -2903,53 +3198,49 @@
         <v>46</v>
       </c>
       <c r="I27" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="J27" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="K27" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="L27" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="M27" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
       <c r="O27" t="s">
         <v>52</v>
       </c>
       <c r="P27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s">
-        <v>192</v>
-      </c>
-      <c r="X27" t="s">
-        <v>193</v>
-      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28">
@@ -2965,7 +3256,7 @@
         <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="G28" t="s">
         <v>45</v>
@@ -2974,34 +3265,34 @@
         <v>46</v>
       </c>
       <c r="I28" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="J28" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="K28" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="L28" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="M28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="O28" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="P28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S28" t="n">
         <v>5</v>
@@ -3013,14 +3304,10 @@
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s">
-        <v>192</v>
-      </c>
-      <c r="X28" t="s">
-        <v>193</v>
-      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
     </row>
     <row r="29">
@@ -3036,7 +3323,7 @@
         <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="G29" t="s">
         <v>45</v>
@@ -3045,51 +3332,49 @@
         <v>46</v>
       </c>
       <c r="I29" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="J29" t="s">
-        <v>215</v>
-      </c>
-      <c r="K29" t="s"/>
+        <v>206</v>
+      </c>
+      <c r="K29" t="s">
+        <v>207</v>
+      </c>
       <c r="L29" t="s">
+        <v>208</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>209</v>
+      </c>
+      <c r="O29" t="s">
         <v>90</v>
       </c>
-      <c r="M29" t="n">
-        <v>4</v>
-      </c>
-      <c r="N29" t="s">
-        <v>216</v>
-      </c>
-      <c r="O29" t="s">
-        <v>79</v>
-      </c>
       <c r="P29" t="n">
         <v>4</v>
       </c>
       <c r="Q29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S29" t="n">
         <v>5</v>
       </c>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s">
-        <v>217</v>
-      </c>
-      <c r="X29" t="s">
-        <v>218</v>
-      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>94</v>
+        <v>208</v>
       </c>
     </row>
     <row r="30">
@@ -3105,7 +3390,7 @@
         <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="G30" t="s">
         <v>45</v>
@@ -3114,43 +3399,49 @@
         <v>46</v>
       </c>
       <c r="I30" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="J30" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="K30" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="L30" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="M30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="O30" t="s">
-        <v>52</v>
-      </c>
-      <c r="P30" t="s"/>
-      <c r="Q30" t="s"/>
-      <c r="R30" t="s"/>
-      <c r="S30" t="s"/>
+        <v>66</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="n">
+        <v>4</v>
+      </c>
       <c r="T30" t="s"/>
-      <c r="U30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s">
-        <v>217</v>
-      </c>
-      <c r="X30" t="s">
-        <v>218</v>
-      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
     </row>
     <row r="31">
@@ -3166,7 +3457,7 @@
         <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="G31" t="s">
         <v>45</v>
@@ -3175,51 +3466,1561 @@
         <v>46</v>
       </c>
       <c r="I31" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="J31" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="K31" t="s"/>
-      <c r="L31" t="s">
-        <v>90</v>
-      </c>
+      <c r="L31" t="s"/>
       <c r="M31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="O31" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="P31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>42272</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>218</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>219</v>
+      </c>
+      <c r="J32" t="s">
+        <v>220</v>
+      </c>
+      <c r="K32" t="s">
+        <v>221</v>
+      </c>
+      <c r="L32" t="s">
+        <v>222</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>223</v>
+      </c>
+      <c r="O32" t="s">
+        <v>59</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="n">
+        <v>3</v>
+      </c>
+      <c r="S32" t="n">
+        <v>4</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>42272</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>224</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>225</v>
+      </c>
+      <c r="J33" t="s">
+        <v>226</v>
+      </c>
+      <c r="K33" t="s"/>
+      <c r="L33" t="s"/>
+      <c r="M33" t="n">
         <v>1</v>
       </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="s">
-        <v>217</v>
-      </c>
-      <c r="X31" t="s">
-        <v>218</v>
-      </c>
-      <c r="Y31" t="s">
+      <c r="N33" t="s">
+        <v>223</v>
+      </c>
+      <c r="O33" t="s">
+        <v>59</v>
+      </c>
+      <c r="P33" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2</v>
+      </c>
+      <c r="R33" t="n">
+        <v>3</v>
+      </c>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>42272</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>227</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>228</v>
+      </c>
+      <c r="J34" t="s">
+        <v>229</v>
+      </c>
+      <c r="K34" t="s">
+        <v>230</v>
+      </c>
+      <c r="L34" t="s">
+        <v>231</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>223</v>
+      </c>
+      <c r="O34" t="s">
+        <v>90</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>232</v>
+      </c>
+      <c r="X34" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>42272</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>235</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>236</v>
+      </c>
+      <c r="J35" t="s">
+        <v>237</v>
+      </c>
+      <c r="K35" t="s">
+        <v>238</v>
+      </c>
+      <c r="L35" t="s">
+        <v>239</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>223</v>
+      </c>
+      <c r="O35" t="s">
+        <v>52</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>4</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>232</v>
+      </c>
+      <c r="X35" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>42272</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>241</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>242</v>
+      </c>
+      <c r="J36" t="s">
+        <v>243</v>
+      </c>
+      <c r="K36" t="s">
+        <v>244</v>
+      </c>
+      <c r="L36" t="s">
+        <v>245</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>223</v>
+      </c>
+      <c r="O36" t="s">
+        <v>59</v>
+      </c>
+      <c r="P36" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>3</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>4</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>232</v>
+      </c>
+      <c r="X36" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>42272</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>247</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>248</v>
+      </c>
+      <c r="J37" t="s">
+        <v>243</v>
+      </c>
+      <c r="K37" t="s">
+        <v>249</v>
+      </c>
+      <c r="L37" t="s">
+        <v>250</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>223</v>
+      </c>
+      <c r="O37" t="s">
+        <v>59</v>
+      </c>
+      <c r="P37" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>3</v>
+      </c>
+      <c r="R37" t="n">
+        <v>3</v>
+      </c>
+      <c r="S37" t="n">
+        <v>3</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>3</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>232</v>
+      </c>
+      <c r="X37" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>42272</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>252</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>253</v>
+      </c>
+      <c r="J38" t="s">
+        <v>254</v>
+      </c>
+      <c r="K38" t="s">
+        <v>255</v>
+      </c>
+      <c r="L38" t="s">
+        <v>256</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s">
+        <v>223</v>
+      </c>
+      <c r="O38" t="s">
+        <v>90</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>1</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>1</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>232</v>
+      </c>
+      <c r="X38" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>42272</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>258</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>259</v>
+      </c>
+      <c r="J39" t="s">
+        <v>260</v>
+      </c>
+      <c r="K39" t="s">
+        <v>261</v>
+      </c>
+      <c r="L39" t="s">
+        <v>262</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>223</v>
+      </c>
+      <c r="O39" t="s">
+        <v>66</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>232</v>
+      </c>
+      <c r="X39" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>42272</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>264</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>265</v>
+      </c>
+      <c r="J40" t="s">
+        <v>266</v>
+      </c>
+      <c r="K40" t="s">
+        <v>267</v>
+      </c>
+      <c r="L40" t="s">
+        <v>268</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>223</v>
+      </c>
+      <c r="O40" t="s">
+        <v>59</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>232</v>
+      </c>
+      <c r="X40" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>42272</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>270</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>271</v>
+      </c>
+      <c r="J41" t="s">
+        <v>266</v>
+      </c>
+      <c r="K41" t="s">
+        <v>272</v>
+      </c>
+      <c r="L41" t="s">
+        <v>273</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>223</v>
+      </c>
+      <c r="O41" t="s">
+        <v>59</v>
+      </c>
+      <c r="P41" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>2</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="n">
+        <v>2</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>232</v>
+      </c>
+      <c r="X41" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>42272</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>275</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>276</v>
+      </c>
+      <c r="J42" t="s">
+        <v>277</v>
+      </c>
+      <c r="K42" t="s">
+        <v>278</v>
+      </c>
+      <c r="L42" t="s">
+        <v>279</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>280</v>
+      </c>
+      <c r="O42" t="s">
+        <v>59</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>281</v>
+      </c>
+      <c r="X42" t="s">
+        <v>282</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42272</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>284</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>285</v>
+      </c>
+      <c r="J43" t="s">
+        <v>286</v>
+      </c>
+      <c r="K43" t="s"/>
+      <c r="L43" t="s">
         <v>94</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>280</v>
+      </c>
+      <c r="O43" t="s">
+        <v>90</v>
+      </c>
+      <c r="P43" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>4</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>4</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>4</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>281</v>
+      </c>
+      <c r="X43" t="s">
+        <v>282</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>42272</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>287</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>288</v>
+      </c>
+      <c r="J44" t="s">
+        <v>289</v>
+      </c>
+      <c r="K44" t="s">
+        <v>290</v>
+      </c>
+      <c r="L44" t="s">
+        <v>291</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>292</v>
+      </c>
+      <c r="O44" t="s">
+        <v>52</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>281</v>
+      </c>
+      <c r="X44" t="s">
+        <v>282</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>42272</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>294</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>295</v>
+      </c>
+      <c r="J45" t="s">
+        <v>289</v>
+      </c>
+      <c r="K45" t="s">
+        <v>296</v>
+      </c>
+      <c r="L45" t="s">
+        <v>297</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>280</v>
+      </c>
+      <c r="O45" t="s">
+        <v>59</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>281</v>
+      </c>
+      <c r="X45" t="s">
+        <v>282</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>42272</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>299</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>300</v>
+      </c>
+      <c r="J46" t="s">
+        <v>301</v>
+      </c>
+      <c r="K46" t="s">
+        <v>302</v>
+      </c>
+      <c r="L46" t="s">
+        <v>303</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" t="s">
+        <v>280</v>
+      </c>
+      <c r="O46" t="s">
+        <v>59</v>
+      </c>
+      <c r="P46" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>3</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>1</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>281</v>
+      </c>
+      <c r="X46" t="s">
+        <v>282</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>42272</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>305</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>306</v>
+      </c>
+      <c r="J47" t="s">
+        <v>307</v>
+      </c>
+      <c r="K47" t="s">
+        <v>308</v>
+      </c>
+      <c r="L47" t="s">
+        <v>309</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>280</v>
+      </c>
+      <c r="O47" t="s">
+        <v>77</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>281</v>
+      </c>
+      <c r="X47" t="s">
+        <v>282</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>42272</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>311</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>312</v>
+      </c>
+      <c r="J48" t="s">
+        <v>313</v>
+      </c>
+      <c r="K48" t="s">
+        <v>314</v>
+      </c>
+      <c r="L48" t="s">
+        <v>315</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>292</v>
+      </c>
+      <c r="O48" t="s">
+        <v>66</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>281</v>
+      </c>
+      <c r="X48" t="s">
+        <v>282</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>42272</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>317</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>318</v>
+      </c>
+      <c r="J49" t="s">
+        <v>319</v>
+      </c>
+      <c r="K49" t="s">
+        <v>320</v>
+      </c>
+      <c r="L49" t="s">
+        <v>321</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="s">
+        <v>292</v>
+      </c>
+      <c r="O49" t="s">
+        <v>52</v>
+      </c>
+      <c r="P49" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>281</v>
+      </c>
+      <c r="X49" t="s">
+        <v>282</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>42272</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>323</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>324</v>
+      </c>
+      <c r="J50" t="s">
+        <v>325</v>
+      </c>
+      <c r="K50" t="s"/>
+      <c r="L50" t="s">
+        <v>94</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>292</v>
+      </c>
+      <c r="O50" t="s">
+        <v>90</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>326</v>
+      </c>
+      <c r="X50" t="s">
+        <v>327</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>42272</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>328</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
+        <v>329</v>
+      </c>
+      <c r="J51" t="s">
+        <v>330</v>
+      </c>
+      <c r="K51" t="s">
+        <v>331</v>
+      </c>
+      <c r="L51" t="s">
+        <v>332</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>292</v>
+      </c>
+      <c r="O51" t="s">
+        <v>59</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>326</v>
+      </c>
+      <c r="X51" t="s">
+        <v>327</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>42272</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>334</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>335</v>
+      </c>
+      <c r="J52" t="s">
+        <v>336</v>
+      </c>
+      <c r="K52" t="s"/>
+      <c r="L52" t="s">
+        <v>94</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" t="s">
+        <v>292</v>
+      </c>
+      <c r="O52" t="s">
+        <v>59</v>
+      </c>
+      <c r="P52" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>3</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S52" t="n">
+        <v>3</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>1</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>326</v>
+      </c>
+      <c r="X52" t="s">
+        <v>327</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>42272</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
+        <v>337</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s">
+        <v>338</v>
+      </c>
+      <c r="J53" t="s">
+        <v>339</v>
+      </c>
+      <c r="K53" t="s"/>
+      <c r="L53" t="s">
+        <v>94</v>
+      </c>
+      <c r="M53" t="n">
+        <v>2</v>
+      </c>
+      <c r="N53" t="s">
+        <v>340</v>
+      </c>
+      <c r="O53" t="s">
+        <v>59</v>
+      </c>
+      <c r="P53" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>1</v>
+      </c>
+      <c r="R53" t="n">
+        <v>3</v>
+      </c>
+      <c r="S53" t="n">
+        <v>1</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>2</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>326</v>
+      </c>
+      <c r="X53" t="s">
+        <v>327</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
